--- a/01_Input/00_CO Validation/Samoa - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Samoa - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="300" documentId="11_F7E653C54C34D022B3ECE89B790E69167898D454" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20F95900-C4C5-4B5B-9CAE-9797DCFCBF2A}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="11_F7E653C54C34D022B3ECE89B790E69167898D454" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A3FFE7-FC75-4CD0-8C95-160D3876A1A9}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="110">
   <si>
     <t>Project ID</t>
   </si>
@@ -155,6 +158,109 @@
   </si>
   <si>
     <t>a) 10 (2021)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Number of electric vehicles procured for public service delivery, disaggregated by type/service:
+ a) cars 
+b) vans
+c) pick-ups
+d) buses
+e) utility trucks
+f) outboard motors. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>603 vehicles, multiplied by 5 to convert to capacity.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Number of government ministries involved in training and capacity building interventions for low-carbon energy activites.</t>
+  </si>
+  <si>
+    <t>Number of articles/ communication items per year that specifically refer to low-carbon energy transition.</t>
+  </si>
+  <si>
+    <t>Communication may include not only mass media coverage, but also e-bulletins, mailings, and other direct outreach to recipients.</t>
+  </si>
+  <si>
+    <t>Number of gender-sensitive planning and policy instruments developed to support Samoa's transition to low-carbon transport disaggregated by NDC sub-sector.</t>
+  </si>
+  <si>
+    <t>Means of verification:                                                                         - Transport Sector Plan 2013-2018                                                - Samoa NDC Impementation Roadmap and Investment Plan    - Updated legislation and policy framework                                 - Decarbonization Strategy and Sector Plans (Land/Maritime)</t>
+  </si>
+  <si>
+    <t>Other Energy Services</t>
+  </si>
+  <si>
+    <t>Direct Project Beneficiaries</t>
+  </si>
+  <si>
+    <t>Direct project beneficiaries from enhanced policy and regulatory frameworks, awareness and access to information regarding a low-carbon transition in land/maritime transport sectors, improved e-vehicle charging network, inclusice financing mechanisms etc.</t>
+  </si>
+  <si>
+    <t>AREAN</t>
+  </si>
+  <si>
+    <t>% RE electricity production</t>
+  </si>
+  <si>
+    <t>Means of verification: 
+DoU-MoI
+Treasury Department
+Project M&amp;E and activity reports
+Trade and commerce reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of approved and enforced RE and EC&amp;EE policies, and associated guidance and implementing rules and regulations
+</t>
+  </si>
+  <si>
+    <t>Means of verification:
+Documents on RE and EC&amp;EE policies, regulations and energy standards
+Annual reports from DoU-MoI
+NPC
+Bulk Fuels Project M&amp;E and activity reports</t>
+  </si>
+  <si>
+    <t>No. of formulated and approved policies and regulations incorporated in the country's Energy Act</t>
+  </si>
+  <si>
+    <t># of beneficiaries
+No. of new jobs created in the application of sustainable energy and LE technologies and techniques in the energy supply and energy  end-use sectors in Niue</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>Incemental. No. of energy consumers (e.g., households) that will utilise EE appliances and RE-based energy generating and consuming equipment acquired through AREAN initiatives</t>
+  </si>
+  <si>
+    <t>160 HH</t>
+  </si>
+  <si>
+    <t>Means of verification:
+Suvervy of energy consumption of consumers (e.g., household energy survey)
+Business registrations of local technical and engineering services providers that are working on low carbon technology projects
+Project M&amp;E and activity reports</t>
   </si>
   <si>
     <r>
@@ -183,82 +289,12 @@
     </r>
   </si>
   <si>
-    <t>Number of government ministries involved in training and capacity building interventions for low-carbon energy activites.</t>
-  </si>
-  <si>
-    <t>Number of articles/ communication items per year that specifically refer to low-carbon energy transition.</t>
-  </si>
-  <si>
-    <t>Communication may include not only mass media coverage, but also e-bulletins, mailings, and other direct outreach to recipients.</t>
-  </si>
-  <si>
-    <t>Number of gender-sensitive planning and policy instruments developed to support Samoa's transition to low-carbon transport disaggregated by NDC sub-sector.</t>
-  </si>
-  <si>
-    <t>Means of verification:                                                                         - Transport Sector Plan 2013-2018                                                - Samoa NDC Impementation Roadmap and Investment Plan    - Updated legislation and policy framework                                 - Decarbonization Strategy and Sector Plans (Land/Maritime)</t>
-  </si>
-  <si>
-    <t>Other Energy Services</t>
-  </si>
-  <si>
-    <t>Direct Project Beneficiaries</t>
-  </si>
-  <si>
-    <t>Direct project beneficiaries from enhanced policy and regulatory frameworks, awareness and access to information regarding a low-carbon transition in land/maritime transport sectors, improved e-vehicle charging network, inclusice financing mechanisms etc.</t>
-  </si>
-  <si>
-    <t>AREAN</t>
-  </si>
-  <si>
-    <t>% RE electricity production</t>
-  </si>
-  <si>
-    <t>Means of verification: 
-DoU-MoI
-Treasury Department
-Project M&amp;E and activity reports
-Trade and commerce reports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No. of approved and enforced RE and EC&amp;EE policies, and associated guidance and implementing rules and regulations
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">0
 0
 </t>
   </si>
   <si>
-    <t>Means of verification:
-Documents on RE and EC&amp;EE policies, regulations and energy standards
-Annual reports from DoU-MoI
-NPC
-Bulk Fuels Project M&amp;E and activity reports</t>
-  </si>
-  <si>
-    <t>No. of formulated and approved policies and regulations incorporated in the country's Energy Act</t>
-  </si>
-  <si>
     <t>Entrepreneurship Training</t>
-  </si>
-  <si>
-    <t># of beneficiaries
-No. of new jobs created in the application of sustainable energy and LE technologies and techniques in the energy supply and energy  end-use sectors in Niue</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>Incemental. No. of energy consumers (e.g., households) that will utilise EE appliances and RE-based energy generating and consuming equipment acquired through AREAN initiatives</t>
-  </si>
-  <si>
-    <t>160 HH</t>
-  </si>
-  <si>
-    <t>Means of verification:
-Suvervy of energy consumption of consumers (e.g., household energy survey)
-Business registrations of local technical and engineering services providers that are working on low carbon technology projects
-Project M&amp;E and activity reports</t>
   </si>
   <si>
     <t>USD 6,075,828</t>
@@ -534,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -605,11 +641,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -689,45 +815,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,6 +833,151 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,7 +1285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564396D-967D-47A2-83D6-EA1D8BF68ECE}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1066,16 +1300,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1096,46 +1330,46 @@
       <c r="J1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="43"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="76.5">
-      <c r="A2" s="33">
+      <c r="A2" s="41">
         <v>5669</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="38">
         <v>6075828</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="19" t="s">
@@ -1145,28 +1379,30 @@
         <v>82</v>
       </c>
       <c r="H2" s="6">
-        <v>50</v>
-      </c>
-      <c r="I2" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="91.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="19" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="36" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="19" t="s">
@@ -1178,24 +1414,26 @@
       <c r="H3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="137.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="19" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="19" t="s">
@@ -1207,24 +1445,26 @@
       <c r="H4" s="6">
         <v>20</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="106.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="19" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="36" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="19" t="s">
@@ -1236,25 +1476,27 @@
       <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="21"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="19" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="22">
@@ -1263,27 +1505,29 @@
       <c r="H6" s="22">
         <v>3</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="43"/>
-    </row>
-    <row r="7" spans="1:19" ht="76.5">
-      <c r="A7" s="34" t="s">
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:19" ht="137.25">
+      <c r="A7" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72">
         <v>15175755</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1298,22 +1542,25 @@
       <c r="H7" s="15">
         <v>3000</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="43"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" ht="106.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
@@ -1326,20 +1573,23 @@
       <c r="H8" s="14">
         <v>4</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="45"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" ht="91.5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1352,22 +1602,25 @@
       <c r="H9" s="14">
         <v>4</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="46"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="1:19" ht="137.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1380,22 +1633,24 @@
       <c r="H10" s="14">
         <v>4</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="46"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="60"/>
     </row>
     <row r="11" spans="1:19" ht="76.5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
       <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1408,24 +1663,34 @@
       <c r="H11" s="16">
         <v>200000</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="52" t="s">
         <v>47</v>
       </c>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
     </row>
     <row r="12" spans="1:19" ht="76.5">
-      <c r="A12" s="29">
+      <c r="A12" s="68">
         <v>6037</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="71">
         <v>3321563</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="65"/>
       <c r="F12" s="17" t="s">
         <v>49</v>
       </c>
@@ -1435,64 +1700,92 @@
       <c r="H12" s="24">
         <v>0.73</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="30"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="26"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
     </row>
     <row r="13" spans="1:19" ht="121.5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="17" t="s">
+      <c r="A13" s="69"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="65" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>52</v>
+      <c r="G13" s="20">
+        <v>0</v>
       </c>
       <c r="H13" s="20">
         <v>2</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="30"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+    </row>
+    <row r="14" spans="1:19" ht="76.5">
+      <c r="A14" s="69"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:19" ht="76.5">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
       <c r="H14" s="20">
         <v>2</v>
       </c>
-      <c r="I14" s="17"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
     </row>
     <row r="15" spans="1:19" ht="152.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="17" t="s">
-        <v>55</v>
+      <c r="A15" s="69"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="65" t="s">
+        <v>31</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="20">
         <v>0</v>
@@ -1500,50 +1793,52 @@
       <c r="H15" s="20">
         <v>8</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" ht="152.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="17" t="s">
-        <v>57</v>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="65" t="s">
+        <v>55</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="L12:L16"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="L2:L6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N10" xr:uid="{989AD35C-A20B-4921-B866-B5EA4F029543}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -1581,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990D1B7F-0ADB-4207-A516-A22E8A52680B}">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -1632,37 +1927,37 @@
       <c r="L1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="43"/>
+      <c r="S1" s="30"/>
     </row>
     <row r="2" spans="1:19" ht="76.5">
-      <c r="A2" s="33">
+      <c r="A2" s="78">
         <v>5669</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="78">
         <v>6075828</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -1680,22 +1975,22 @@
       <c r="I2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="91.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
@@ -1711,20 +2006,20 @@
       <c r="I3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="45"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" ht="137.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
@@ -1740,20 +2035,20 @@
       <c r="I4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="45"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32"/>
     </row>
     <row r="5" spans="1:19" ht="106.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
@@ -1767,24 +2062,24 @@
         <v>1</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="45"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="32"/>
     </row>
     <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="22">
@@ -1796,24 +2091,24 @@
       <c r="I6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="32"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="43"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19" ht="76.5">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81">
         <v>15175755</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -1828,22 +2123,22 @@
       <c r="H7" s="15">
         <v>3000</v>
       </c>
-      <c r="I7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="43"/>
+      <c r="I7" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" ht="106.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="7" t="s">
         <v>31</v>
       </c>
@@ -1858,18 +2153,18 @@
       </c>
       <c r="I8" s="7"/>
       <c r="M8" s="28"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="45"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:19" ht="91.5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="7" t="s">
         <v>31</v>
       </c>
@@ -1885,19 +2180,19 @@
       <c r="I9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="46"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="33"/>
     </row>
     <row r="10" spans="1:19" ht="137.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
@@ -1913,19 +2208,19 @@
       <c r="I10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="46"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:19" ht="76.5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1943,16 +2238,16 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="76.5">
-      <c r="A12" s="29">
+      <c r="A12" s="74">
         <v>6037</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="75">
         <v>3321563</v>
       </c>
       <c r="E12" s="17"/>
@@ -1968,16 +2263,16 @@
       <c r="I12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="77" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="26"/>
     </row>
     <row r="13" spans="1:19" ht="121.5">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
@@ -1985,44 +2280,44 @@
         <v>51</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H13" s="20">
         <v>2</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:19" ht="76.5">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="20">
         <v>2</v>
       </c>
       <c r="I14" s="17"/>
-      <c r="L14" s="32"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:19" ht="152.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="17" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="20">
         <v>0</v>
@@ -2033,29 +2328,29 @@
       <c r="I15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="L15" s="32"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:19" ht="152.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" s="20">
         <v>0</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I16" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="L16" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2157,23 +2452,23 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="76.5">
-      <c r="A2" s="33">
+      <c r="A2" s="78">
         <v>5669</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>61</v>
+      <c r="D2" s="78" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="6">
         <v>82</v>
@@ -2186,10 +2481,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="106.5">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
@@ -2200,17 +2495,17 @@
         <v>0</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="137.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
       <c r="E4" s="19" t="s">
         <v>27</v>
       </c>
@@ -2218,7 +2513,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H4" s="6">
         <v>20</v>
@@ -2228,33 +2523,33 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="229.5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
       <c r="E5" s="19" t="s">
         <v>31</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I5" s="21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="6"/>
@@ -2262,37 +2557,37 @@
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="167.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36" t="s">
-        <v>69</v>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="106.5">
-      <c r="A8" s="35"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="7" t="s">
         <v>27</v>
       </c>
@@ -2300,7 +2595,7 @@
         <v>40</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H8" s="14">
         <v>4</v>
@@ -2308,18 +2603,18 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="91.5">
-      <c r="A9" s="35"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H9" s="14">
         <v>4</v>
@@ -2329,10 +2624,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="137.25" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
@@ -2350,12 +2645,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="76.5">
-      <c r="A11" s="35"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>46</v>
@@ -2371,17 +2666,17 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="29">
+      <c r="A12" s="74">
         <v>6037</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>76</v>
+      <c r="D12" s="75" t="s">
+        <v>77</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>20</v>
@@ -2400,36 +2695,36 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="183">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
       <c r="E13" s="17" t="s">
         <v>31</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H13" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="14" spans="1:10" ht="137.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
       <c r="E14" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="20">
         <v>0</v>
@@ -2442,15 +2737,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="152.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" s="20">
         <v>0</v>
@@ -2459,14 +2754,14 @@
         <v>160</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="20"/>
@@ -2520,160 +2815,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="38" t="s">
-        <v>82</v>
+      <c r="A2" s="83" t="s">
+        <v>83</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="38"/>
+      <c r="A3" s="83"/>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="38"/>
+      <c r="A4" s="83"/>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="39" t="s">
-        <v>87</v>
+      <c r="A5" s="84" t="s">
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="84"/>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="84"/>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="84"/>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="39"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="40" t="s">
-        <v>97</v>
+      <c r="A10" s="85" t="s">
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="40"/>
+      <c r="A11" s="85"/>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="41" t="s">
-        <v>102</v>
+      <c r="A12" s="86" t="s">
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="41"/>
+      <c r="A13" s="86"/>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="41"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2697,6 +2992,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2945,25 +3251,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF10B64-7D5F-4618-9DAA-4885E88C7592}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A8C5F5-AE78-4946-B93D-E0675BE79447}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177C6214-6822-453E-92B9-233A92435821}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177C6214-6822-453E-92B9-233A92435821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A8C5F5-AE78-4946-B93D-E0675BE79447}"/>
 </file>
--- a/01_Input/00_CO Validation/Samoa - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Samoa - Energy Projects.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="404" documentId="11_F7E653C54C34D022B3ECE89B790E69167898D454" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F61AE16-F01A-49B8-A9E5-039EC8766847}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="494" documentId="11_F7E653C54C34D022B3ECE89B790E69167898D454" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D54F8E3-D752-49BE-9764-AFA44DCFC936}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
-    <sheet name="Projects (2)" sheetId="3" r:id="rId2"/>
-    <sheet name="Projects" sheetId="1" r:id="rId3"/>
+    <sheet name="Projects (2)" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Projects" sheetId="1" state="hidden" r:id="rId3"/>
     <sheet name="Beneficiary Categories" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="141">
   <si>
     <t>Project ID</t>
   </si>
@@ -45,6 +50,9 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Country</t>
+  </si>
+  <si>
     <t>Budget</t>
   </si>
   <si>
@@ -99,16 +107,28 @@
     <t>Policy Population</t>
   </si>
   <si>
+    <t>Project Document</t>
+  </si>
+  <si>
     <t>IMPRESS</t>
   </si>
   <si>
-    <t>PIMS+</t>
+    <t>https://co.pims.undp.org/project/view?id=5669</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
     <t>Cumulative electricity generation using RE resources, MW</t>
+  </si>
+  <si>
+    <t>82 target</t>
+  </si>
+  <si>
+    <t>132 target</t>
   </si>
   <si>
     <t>Source of Verification: 
@@ -118,6 +138,9 @@
 Samoa Energy Review Reports</t>
   </si>
   <si>
+    <t>GEF</t>
+  </si>
+  <si>
     <t>VF</t>
   </si>
   <si>
@@ -125,6 +148,9 @@
   </si>
   <si>
     <t>Some Sources</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>Electricity Access</t>
@@ -157,10 +183,38 @@
     <t>Number of approved and enforced regulations that support EE implementation in Samoa under the Energy Bill</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source of Verification: 
+Project activity report 
+Project M&amp;E reports
+EPC annual report
+Samoa Energy Review Reports
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Updated data directly on website</t>
+    </r>
+  </si>
+  <si>
     <t>01000418</t>
   </si>
   <si>
     <t>CAP-IT</t>
+  </si>
+  <si>
+    <t>https://www.undp.org/samoa/projects/cap-it-project</t>
   </si>
   <si>
     <t>Transportation and E-mobility Services</t>
@@ -182,9 +236,8 @@
  a) cars 
 b) vans
 c) pick-ups
-d) buses
-e) utility trucks
-f) outboard motors. 
+d) utility trucks
+e) 5 e-vessels with electric outboard motors
 </t>
     </r>
     <r>
@@ -193,7 +246,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t>603 vehicles, multiplied by 5 to convert to capacity.</t>
+      <t>76 vehicles, multiplied by 5 to convert to capacity.</t>
     </r>
     <r>
       <rPr>
@@ -205,12 +258,18 @@
     </r>
   </si>
   <si>
+    <t>Government of Japan</t>
+  </si>
+  <si>
     <t>Non-VF</t>
   </si>
   <si>
     <t>Number of government ministries involved in training and capacity building interventions for low-carbon energy activites.</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Number of articles/ communication items per year that specifically refer to low-carbon energy transition.</t>
   </si>
   <si>
@@ -245,6 +304,30 @@
   </si>
   <si>
     <t>AREAN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PIMS+
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.thegef.org/projects-operations/projects/9752</t>
+    </r>
+  </si>
+  <si>
+    <t>Niue</t>
   </si>
   <si>
     <t>% RE electricity production</t>
@@ -297,6 +380,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>PIMS+</t>
   </si>
   <si>
     <t>Capacity Training</t>
@@ -388,9 +474,6 @@
     <t>Campaign Participant</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>USD 3,321,563</t>
   </si>
   <si>
@@ -505,7 +588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,8 +651,44 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,10 +853,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -931,6 +1057,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,17 +1137,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1271,31 +1442,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5564396D-967D-47A2-83D6-EA1D8BF68ECE}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S11" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:AA1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" style="86" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" customWidth="1"/>
+    <col min="6" max="6" width="35.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.265625" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.265625" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.86328125" customWidth="1"/>
+    <col min="18" max="18" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.265625" customWidth="1"/>
+    <col min="23" max="23" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1305,10 +1483,10 @@
       <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1323,666 +1501,764 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="67" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="76.5">
+      <c r="V1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="71.25">
       <c r="A2" s="35">
         <v>5669</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="36">
+        <v>23</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="36">
         <v>6075828</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="27">
-        <v>82</v>
-      </c>
-      <c r="H2" s="27">
-        <v>132</v>
-      </c>
-      <c r="I2" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="69" t="s">
+      <c r="F2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="27"/>
-      <c r="N2" s="70" t="s">
+      <c r="G2" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="27"/>
+      <c r="H2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="27"/>
+      <c r="O2" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
-      <c r="S2" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:21" ht="91.5">
+      <c r="S2" s="27"/>
+      <c r="T2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="28"/>
+      <c r="W2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="71.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="81"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="42" t="s">
+      <c r="K3" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="27"/>
+      <c r="L3" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="M3" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P3" s="27"/>
       <c r="Q3" s="27"/>
       <c r="R3" s="27"/>
-      <c r="S3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="27"/>
-      <c r="U3" s="28"/>
-    </row>
-    <row r="4" spans="1:21" ht="137.25">
+      <c r="S3" s="27"/>
+      <c r="T3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="V3" s="28"/>
+    </row>
+    <row r="4" spans="1:23" ht="85.5">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="81"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="27">
+        <v>20</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="M4" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="N4" s="27"/>
+      <c r="O4" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="27">
-        <v>20</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="27"/>
-      <c r="N4" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27"/>
       <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="28"/>
-    </row>
-    <row r="5" spans="1:21" ht="106.5">
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="28"/>
+    </row>
+    <row r="5" spans="1:23" ht="57">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="D5" s="81"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="27">
+      <c r="I5" s="27">
         <v>1</v>
       </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="27"/>
-      <c r="N5" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="27"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="26"/>
+      <c r="M5" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="27"/>
+      <c r="O5" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P5" s="27"/>
       <c r="Q5" s="27"/>
       <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="28"/>
-    </row>
-    <row r="6" spans="1:21" ht="106.5">
+      <c r="S5" s="27"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="28"/>
+    </row>
+    <row r="6" spans="1:23" ht="85.5">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="42">
+      <c r="D6" s="82"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="42">
         <v>0</v>
       </c>
-      <c r="H6" s="42">
+      <c r="I6" s="42">
         <v>3</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="27"/>
+      <c r="J6" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="26"/>
+      <c r="M6" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="27"/>
+      <c r="O6" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P6" s="27"/>
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="28"/>
-    </row>
-    <row r="7" spans="1:21" ht="137.25">
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="28"/>
+    </row>
+    <row r="7" spans="1:23" ht="114">
       <c r="A7" s="46" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47">
+        <v>47</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="47">
         <v>15175755</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="42">
-        <v>3000</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="27"/>
+      <c r="F7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="42">
+        <v>76</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="28"/>
-    </row>
-    <row r="8" spans="1:21" ht="106.5">
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="71.25">
       <c r="A8" s="46"/>
       <c r="B8" s="47"/>
       <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="63">
+      <c r="D8" s="84"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="63">
         <v>4</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="27"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="27"/>
+      <c r="O8" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-    </row>
-    <row r="9" spans="1:21" ht="91.5">
+      <c r="S8" s="27"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="57">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="27">
+      <c r="D9" s="84"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="27">
         <v>4</v>
       </c>
-      <c r="I9" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="27"/>
+      <c r="J9" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="M9" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-    </row>
-    <row r="10" spans="1:21" ht="137.25" customHeight="1">
+      <c r="S9" s="27"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="28"/>
+    </row>
+    <row r="10" spans="1:23" ht="85.5">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="27">
+      <c r="D10" s="84"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="27">
         <v>2</v>
       </c>
-      <c r="H10" s="27">
+      <c r="I10" s="27">
         <v>4</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M10" s="27"/>
-      <c r="N10" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="27" t="s">
+      <c r="J10" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="32">
         <v>50</v>
       </c>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="M10" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="27"/>
       <c r="R10" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="S10" s="28"/>
-      <c r="T10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U10" s="28"/>
-    </row>
-    <row r="11" spans="1:21" ht="76.5">
+        <v>62</v>
+      </c>
+      <c r="S10" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="T10" s="28"/>
+      <c r="U10" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" ht="71.25">
       <c r="A11" s="46"/>
       <c r="B11" s="47"/>
       <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="84"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="56">
+        <v>0</v>
+      </c>
+      <c r="I11" s="56">
+        <v>200000</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="32">
+        <v>50</v>
+      </c>
+      <c r="M11" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="56">
-        <v>0</v>
-      </c>
-      <c r="H11" s="56">
-        <v>200000</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P11" s="27"/>
       <c r="Q11" s="27"/>
       <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="28"/>
-    </row>
-    <row r="12" spans="1:21" ht="76.5">
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="71.25">
       <c r="A12" s="35">
         <v>6037</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="57">
+        <v>68</v>
+      </c>
+      <c r="C12" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="57">
         <v>3321563</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="59">
+      <c r="F12" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12" s="59">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H12" s="60">
+      <c r="I12" s="60">
         <v>0.73</v>
       </c>
-      <c r="I12" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="27"/>
+      <c r="J12" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="49"/>
+      <c r="M12" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="27"/>
+      <c r="O12" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P12" s="27"/>
       <c r="Q12" s="27"/>
       <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="28"/>
-    </row>
-    <row r="13" spans="1:21" ht="121.5">
+      <c r="S12" s="27"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="99.75">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="42">
+      <c r="D13" s="81"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="42">
         <v>0</v>
       </c>
-      <c r="H13" s="42">
+      <c r="I13" s="42">
         <v>2</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="J13" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="49"/>
+      <c r="M13" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="27"/>
+      <c r="O13" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27" t="s">
-        <v>62</v>
-      </c>
+      <c r="Q13" s="27"/>
       <c r="R13" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U13" s="28"/>
-    </row>
-    <row r="14" spans="1:21" ht="76.5">
+        <v>75</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" s="28"/>
+    </row>
+    <row r="14" spans="1:23" ht="57">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="42">
+      <c r="D14" s="81"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="42">
         <v>0</v>
       </c>
-      <c r="H14" s="42">
+      <c r="I14" s="42">
         <v>2</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="27"/>
-      <c r="N14" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="49"/>
+      <c r="M14" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="27"/>
+      <c r="O14" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="28"/>
+      <c r="U14" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="R14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="28"/>
-      <c r="T14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U14" s="28"/>
-    </row>
-    <row r="15" spans="1:21" ht="152.25">
+      <c r="V14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" ht="99.75">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="81"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="42">
         <v>0</v>
       </c>
-      <c r="H15" s="42">
-        <v>8</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="I15" s="42">
+        <v>160</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="49">
+        <v>25</v>
+      </c>
+      <c r="M15" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="27"/>
+      <c r="O15" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-    </row>
-    <row r="16" spans="1:21" ht="152.25">
+      <c r="S15" s="27"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="28"/>
+    </row>
+    <row r="16" spans="1:23" ht="99.75">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="55" t="s">
-        <v>66</v>
-      </c>
+      <c r="D16" s="82"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="42">
+        <v>79</v>
+      </c>
+      <c r="G16" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="42">
         <v>0</v>
       </c>
-      <c r="H16" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="70" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="27"/>
+      <c r="I16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="49"/>
+      <c r="M16" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="27"/>
+      <c r="O16" s="70" t="s">
+        <v>33</v>
+      </c>
       <c r="P16" s="27"/>
       <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="28"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="28"/>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16" xr:uid="{989AD35C-A20B-4921-B866-B5EA4F029543}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O16" xr:uid="{989AD35C-A20B-4921-B866-B5EA4F029543}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P16" xr:uid="{11263E33-2AD9-48FE-95BD-E36B3D15FC27}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q16" xr:uid="{11263E33-2AD9-48FE-95BD-E36B3D15FC27}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q16" xr:uid="{5780E01C-BE75-4075-A67C-4524B8E829FC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R16" xr:uid="{5780E01C-BE75-4075-A67C-4524B8E829FC}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O16" xr:uid="{6CEB00FC-C6C2-47B1-9C12-B24ABD3C3561}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P16" xr:uid="{6CEB00FC-C6C2-47B1-9C12-B24ABD3C3561}">
       <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M16" xr:uid="{69FE5182-9E9A-4731-81AE-7E88F2C8BA62}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16" xr:uid="{69FE5182-9E9A-4731-81AE-7E88F2C8BA62}">
       <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T16" xr:uid="{2CF603CD-F3C1-46F7-9446-ECAD6E04E361}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U16" xr:uid="{2CF603CD-F3C1-46F7-9446-ECAD6E04E361}">
       <formula1>"National, Regional, City, Community"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L16" xr:uid="{B492E4CD-0864-428D-8A63-82AED27F64B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M16" xr:uid="{B492E4CD-0864-428D-8A63-82AED27F64B3}">
       <formula1>"Non-VF, VF"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R16" xr:uid="{F1022CDF-5E9B-499B-BB55-B7F77914B665}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S16" xr:uid="{F1022CDF-5E9B-499B-BB55-B7F77914B665}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S16" xr:uid="{BC0784FE-A5A6-45C7-9202-5D58F9C9DA91}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T16" xr:uid="{BC0784FE-A5A6-45C7-9202-5D58F9C9DA91}">
       <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{4B76EA72-19DE-4444-BC14-6A5F29EE3FAA}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{3D680BB9-4EA5-455C-BC50-22BA8BFAE0A6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1991,7 +2267,7 @@
           <x14:formula1>
             <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E16</xm:sqref>
+          <xm:sqref>F2:F16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2007,14 +2283,14 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="52.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="6" width="20.73046875" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" customWidth="1"/>
+    <col min="8" max="8" width="18.73046875" customWidth="1"/>
+    <col min="9" max="9" width="52.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2028,70 +2304,70 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M1" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="26"/>
     </row>
-    <row r="2" spans="1:19" ht="76.5">
-      <c r="A2" s="75">
+    <row r="2" spans="1:19" ht="71.25">
+      <c r="A2" s="96">
         <v>5669</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="75">
+      <c r="B2" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="96">
         <v>6075828</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2">
         <v>82</v>
@@ -2100,10 +2376,10 @@
         <v>50</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="73" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="L2" s="94" t="s">
+        <v>32</v>
       </c>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -2113,27 +2389,27 @@
       <c r="R2" s="27"/>
       <c r="S2" s="28"/>
     </row>
-    <row r="3" spans="1:19" ht="91.5">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+    <row r="3" spans="1:19" ht="71.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="74"/>
+        <v>30</v>
+      </c>
+      <c r="L3" s="95"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
@@ -2142,27 +2418,27 @@
       <c r="R3" s="27"/>
       <c r="S3" s="28"/>
     </row>
-    <row r="4" spans="1:19" ht="137.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+    <row r="4" spans="1:19" ht="114">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" s="2">
         <v>20</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="74"/>
+        <v>42</v>
+      </c>
+      <c r="L4" s="95"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -2171,16 +2447,16 @@
       <c r="R4" s="27"/>
       <c r="S4" s="28"/>
     </row>
-    <row r="5" spans="1:19" ht="106.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+    <row r="5" spans="1:19" ht="85.5">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -2189,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="17"/>
-      <c r="L5" s="74"/>
+      <c r="L5" s="95"/>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
@@ -2198,16 +2474,16 @@
       <c r="R5" s="27"/>
       <c r="S5" s="28"/>
     </row>
-    <row r="6" spans="1:19" ht="106.5">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+    <row r="6" spans="1:19" ht="85.5">
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G6" s="18">
         <v>0</v>
@@ -2216,9 +2492,9 @@
         <v>3</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="74"/>
+        <v>30</v>
+      </c>
+      <c r="L6" s="95"/>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
       <c r="O6" s="27"/>
@@ -2227,31 +2503,31 @@
       <c r="R6" s="27"/>
       <c r="S6" s="26"/>
     </row>
-    <row r="7" spans="1:19" ht="76.5">
-      <c r="A7" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78">
+    <row r="7" spans="1:19" ht="71.25">
+      <c r="A7" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99">
         <v>15175755</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H7" s="11">
         <v>3000</v>
       </c>
       <c r="I7" s="30" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
@@ -2261,19 +2537,19 @@
       <c r="R7" s="27"/>
       <c r="S7" s="26"/>
     </row>
-    <row r="8" spans="1:19" ht="106.5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+    <row r="8" spans="1:19" ht="85.5">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
       <c r="E8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H8" s="10">
         <v>4</v>
@@ -2287,25 +2563,25 @@
       <c r="R8" s="27"/>
       <c r="S8" s="28"/>
     </row>
-    <row r="9" spans="1:19" ht="91.5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+    <row r="9" spans="1:19" ht="71.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H9" s="10">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -2316,15 +2592,15 @@
       <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" ht="137.25" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -2333,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -2343,16 +2619,16 @@
       <c r="R10" s="27"/>
       <c r="S10" s="29"/>
     </row>
-    <row r="11" spans="1:19" ht="76.5">
-      <c r="A11" s="77"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+    <row r="11" spans="1:19" ht="71.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2361,25 +2637,25 @@
         <v>200000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="76.5">
-      <c r="A12" s="71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="71.25">
+      <c r="A12" s="92">
         <v>6037</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="72">
+      <c r="B12" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="93">
         <v>3321563</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G12" s="19">
         <v>1.7999999999999999E-2</v>
@@ -2388,63 +2664,63 @@
         <v>0.73</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="74" t="s">
-        <v>26</v>
+        <v>72</v>
+      </c>
+      <c r="L12" s="95" t="s">
+        <v>32</v>
       </c>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:19" ht="121.5">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+    <row r="13" spans="1:19" ht="114">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="H13" s="16">
         <v>2</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="L13" s="74"/>
-    </row>
-    <row r="14" spans="1:19" ht="76.5">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="L13" s="95"/>
+    </row>
+    <row r="14" spans="1:19" ht="71.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16">
         <v>2</v>
       </c>
       <c r="I14" s="13"/>
-      <c r="L14" s="74"/>
-    </row>
-    <row r="15" spans="1:19" ht="152.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+      <c r="L14" s="95"/>
+    </row>
+    <row r="15" spans="1:19" ht="114">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="13" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -2453,31 +2729,31 @@
         <v>8</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="16" spans="1:19" ht="152.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+        <v>72</v>
+      </c>
+      <c r="L15" s="95"/>
+    </row>
+    <row r="16" spans="1:19" ht="128.25">
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="13" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G16" s="16">
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="74"/>
+        <v>82</v>
+      </c>
+      <c r="L16" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2537,13 +2813,13 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="52.28515625" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="6" width="20.73046875" customWidth="1"/>
+    <col min="7" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="52.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2557,45 +2833,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="76.5">
-      <c r="A2" s="75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.25">
+      <c r="A2" s="96">
         <v>5669</v>
       </c>
-      <c r="B2" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>77</v>
+      <c r="B2" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>91</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G2" s="2">
         <v>82</v>
@@ -2604,162 +2880,162 @@
         <v>438</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="106.5">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="71.25">
+      <c r="A3" s="96"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="137.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="114">
+      <c r="A4" s="96"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="15" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2">
         <v>20</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="229.5">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="185.25">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
       <c r="E6" s="15" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:10" ht="167.25">
-      <c r="A7" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78" t="s">
+    <row r="7" spans="1:10" ht="156.75">
+      <c r="A7" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="85.5">
+      <c r="A8" s="98"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="106.5">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="H8" s="10">
         <v>4</v>
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="91.5">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+    <row r="9" spans="1:10" ht="71.25">
+      <c r="A9" s="98"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="3" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H9" s="10">
         <v>4</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="137.25" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G10" s="10">
         <v>2</v>
@@ -2768,19 +3044,19 @@
         <v>4</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="76.5">
-      <c r="A11" s="77"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="71.25">
+      <c r="A11" s="98"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G11" s="12">
         <v>0</v>
@@ -2789,27 +3065,27 @@
         <v>200000</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="76.5">
-      <c r="A12" s="71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="71.25">
+      <c r="A12" s="92">
         <v>6037</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>92</v>
+      <c r="B12" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="93" t="s">
+        <v>105</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G12" s="19">
         <v>1.7999999999999999E-2</v>
@@ -2818,40 +3094,40 @@
         <v>0.73</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="183">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="171">
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="137.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+    </row>
+    <row r="14" spans="1:10" ht="99.75">
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="13" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="G14" s="16">
         <v>0</v>
@@ -2860,19 +3136,19 @@
         <v>8</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="152.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="128.25">
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
       <c r="E15" s="13" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G15" s="16">
         <v>0</v>
@@ -2881,14 +3157,14 @@
         <v>160</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="16"/>
@@ -2930,190 +3206,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="52.73046875" customWidth="1"/>
     <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30.75">
-      <c r="A2" s="80" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.5">
+      <c r="A2" s="89" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="80" t="s">
-        <v>23</v>
+      <c r="A3" s="89" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30.75">
-      <c r="A4" s="80" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="89" t="s">
+        <v>111</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="80" t="s">
-        <v>100</v>
+      <c r="A5" s="89" t="s">
+        <v>113</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="45.75">
-      <c r="A6" s="80" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="42.75">
+      <c r="A6" s="89" t="s">
+        <v>115</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30.75">
-      <c r="A7" s="80" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5">
+      <c r="A7" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5">
+      <c r="A8" s="89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5">
+      <c r="A9" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5">
+      <c r="A12" s="89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="89" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="42.75">
+      <c r="A19" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="89" t="s">
         <v>104</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30.75">
-      <c r="A8" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30.75">
-      <c r="A9" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30.75">
-      <c r="A10" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30.75">
-      <c r="A12" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="80" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="81" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="45.75">
-      <c r="A19" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="81" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30.75">
-      <c r="A21" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>126</v>
+      <c r="B20" s="90" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5">
+      <c r="A21" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="81" t="s">
-        <v>127</v>
+      <c r="A22" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3122,8 +3398,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55b7350c375998f6795677b1e38dfa8c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="12a65a177b511ef7abe69f5e8f04446c" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -3148,6 +3424,8 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3227,6 +3505,16 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3391,13 +3679,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64A8C5F5-AE78-4946-B93D-E0675BE79447}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7D42A35-0DCE-4968-A3EB-CC00542B078B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177C6214-6822-453E-92B9-233A92435821}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{177C6214-6822-453E-92B9-233A92435821}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF10B64-7D5F-4618-9DAA-4885E88C7592}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EF10B64-7D5F-4618-9DAA-4885E88C7592}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>